--- a/www/出口报关单导入模板.xlsx
+++ b/www/出口报关单导入模板.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\24098\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2C5E96D-A0A0-4AC2-A45C-96EAC06CD505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{550AC852-A946-41DB-A711-DFD49B2F9AFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>出口报关单号</t>
   </si>
@@ -33,12 +33,16 @@
   <si>
     <t>出口日期</t>
   </si>
+  <si>
+    <t>单据编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -49,6 +53,15 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -75,8 +88,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -354,18 +370,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="20.375" customWidth="1"/>
-    <col min="2" max="2" width="30.375" customWidth="1"/>
+    <col min="2" max="2" width="12.25" customWidth="1"/>
     <col min="3" max="3" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -375,6 +393,9 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/www/出口报关单导入模板.xlsx
+++ b/www/出口报关单导入模板.xlsx
@@ -1,40 +1,58 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\24098\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\OneDrive\桌面\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{550AC852-A946-41DB-A711-DFD49B2F9AFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B3DCA8F-33A8-4259-9B81-1B8013745EBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="12420" windowHeight="10404" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="出口报关单" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">出口报关单!$A$1:$C$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">出口报关单!$B$1:$D$1</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>出口报关单号</t>
-  </si>
-  <si>
-    <t>合同号</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>出口日期</t>
   </si>
   <si>
     <t>单据编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报关单号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同协议号（销售出库单）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成交方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成交币制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外币汇率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外币金额</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -370,31 +388,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="A17" sqref="A17:D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.375" customWidth="1"/>
-    <col min="2" max="2" width="12.25" customWidth="1"/>
-    <col min="3" max="3" width="11.5" customWidth="1"/>
+    <col min="1" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" customWidth="1"/>
+    <col min="7" max="7" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/www/出口报关单导入模板.xlsx
+++ b/www/出口报关单导入模板.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\OneDrive\桌面\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B3DCA8F-33A8-4259-9B81-1B8013745EBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2EFD89E-8A26-4967-B1B4-32817510AFA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="12420" windowHeight="10404" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="出口报关单" sheetId="1" r:id="rId1"/>
@@ -18,12 +18,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">出口报关单!$B$1:$D$1</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>出口日期</t>
   </si>
@@ -53,6 +53,59 @@
   </si>
   <si>
     <t>外币金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XSCKD-100-20230628-0022</t>
+  </si>
+  <si>
+    <t>XSCKD-100-20230622-0002</t>
+  </si>
+  <si>
+    <t>XSCKD-100-20230622-0001</t>
+  </si>
+  <si>
+    <t>222920230002101625</t>
+  </si>
+  <si>
+    <t>JH-2023053027</t>
+  </si>
+  <si>
+    <t>2023-07-03</t>
+  </si>
+  <si>
+    <t>CIF</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>JH-2023061232</t>
+  </si>
+  <si>
+    <t>222920230002063937</t>
+  </si>
+  <si>
+    <t>2023-06-29</t>
+  </si>
+  <si>
+    <t>FOB</t>
+  </si>
+  <si>
+    <t>JH-2023053026</t>
+  </si>
+  <si>
+    <t>222920230002031587</t>
+  </si>
+  <si>
+    <t>2023-06-26</t>
+  </si>
+  <si>
+    <t>CIF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USD</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -60,7 +113,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="176" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0.0000_ "/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -78,6 +135,14 @@
     <font>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -106,11 +171,26 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -388,18 +468,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:D18"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.44140625" customWidth="1"/>
-    <col min="7" max="7" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -421,11 +503,89 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="5">
+        <v>39480</v>
+      </c>
+      <c r="H2" s="6">
+        <v>7.2157</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="5">
+        <v>12000</v>
+      </c>
+      <c r="H3" s="6">
+        <v>7.0964999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="5">
+        <v>39480</v>
+      </c>
+      <c r="H4" s="6">
+        <v>7.0964999999999998</v>
       </c>
     </row>
   </sheetData>
